--- a/excel/radioGoh.xlsx
+++ b/excel/radioGoh.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Testing_Api\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63008A7D-A3B1-42B1-9666-41A92CAA7E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +25,296 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+  <si>
+    <t>Media SL</t>
+  </si>
+  <si>
+    <t>Time Band</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>minBilling</t>
+  </si>
+  <si>
+    <t>vendorRate</t>
+  </si>
+  <si>
+    <t>cardRate</t>
+  </si>
+  <si>
+    <t>discountedRate</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>adtype</t>
+  </si>
+  <si>
+    <t>views</t>
+  </si>
+  <si>
+    <t>adlogo</t>
+  </si>
+  <si>
+    <t>adname</t>
+  </si>
+  <si>
+    <t>toolName</t>
+  </si>
+  <si>
+    <t>minimumBilling</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>City Rank</t>
+  </si>
+  <si>
+    <t>Weekly Listenership</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Prime Time</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Campaign Guidlines</t>
+  </si>
+  <si>
+    <t>Used For</t>
+  </si>
+  <si>
+    <t>Ad Type</t>
+  </si>
+  <si>
+    <t>Lead Time (in days)</t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
+  <si>
+    <t>Time(s) Played per Day</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>specification audio</t>
+  </si>
+  <si>
+    <t>audio format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> audio Other artwork relate</t>
+  </si>
+  <si>
+    <t>variablepricingunits Time Band</t>
+  </si>
+  <si>
+    <t>Time Band value</t>
+  </si>
+  <si>
+    <t>Time Band all values</t>
+  </si>
+  <si>
+    <t>https://tma-live.s3.ap-south-1.amazonaws.com/mediaOptionTemplates/icons/radio/1566393483932/rjOptionsRJMention.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Per Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jingle</t>
+  </si>
+  <si>
+    <t>Jingle is a short audio message, used to define and promote a product or a brand. It usually varies between 10-30 seconds. It can be played during the following time bands: Prime Time - Ads are split between 7am - 12pm &amp; 5pm - 11pm, Mixed Time - Ads are split between 7am - 11pm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popular Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NULL</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://tma-live.s3.ap-south-1.amazonaws.com/medias/55e77e9e8ead0ebe0c8b4671/1565806187262/9822fc7dd2b50fc781192d289677b201.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red FM,  Delhi</t>
+  </si>
+  <si>
+    <t>2.7M</t>
+  </si>
+  <si>
+    <t>93.5 FM</t>
+  </si>
+  <si>
+    <t>Hindi,English</t>
+  </si>
+  <si>
+    <t>07:00-12:00, 17:00-23:00</t>
+  </si>
+  <si>
+    <t>red fm</t>
+  </si>
+  <si>
+    <t>c_tooltip</t>
+  </si>
+  <si>
+    <t>c_icon</t>
+  </si>
+  <si>
+    <t>w_tooltip</t>
+  </si>
+  <si>
+    <t>w_icon</t>
+  </si>
+  <si>
+    <t>f_icon</t>
+  </si>
+  <si>
+    <t>Source- Aircheck IRS And RAM</t>
+  </si>
+  <si>
+    <t>Source - IRS (Q4,2019)</t>
+  </si>
+  <si>
+    <t>SealVariant</t>
+  </si>
+  <si>
+    <t>SpeakerWireless</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>pdf link</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>6 Days</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>Mixed Time - 7AM - 11PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prime Time - 7AM - 12PM</t>
+  </si>
+  <si>
+    <t>Prime Time - 7AM - 12PM</t>
+  </si>
+  <si>
+    <t>other rate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +337,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +621,422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="25" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="30" width="20.28515625" customWidth="1"/>
+    <col min="31" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
+    <col min="41" max="41" width="25.7109375" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" customWidth="1"/>
+    <col min="53" max="53" width="19.85546875" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" customWidth="1"/>
+    <col min="55" max="55" width="25.5703125" customWidth="1"/>
+    <col min="56" max="56" width="31.42578125" customWidth="1"/>
+    <col min="57" max="57" width="19.5703125" customWidth="1"/>
+    <col min="58" max="58" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>28080</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2">
+        <v>55133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2">
+        <v>28080</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2">
+        <v>6</v>
+      </c>
+      <c r="AP2">
+        <v>6</v>
+      </c>
+      <c r="AQ2">
+        <v>365</v>
+      </c>
+      <c r="AS2">
+        <v>10</v>
+      </c>
+      <c r="AT2">
+        <v>10</v>
+      </c>
+      <c r="AU2">
+        <v>60</v>
+      </c>
+      <c r="AV2">
+        <v>10</v>
+      </c>
+      <c r="AW2">
+        <v>6</v>
+      </c>
+      <c r="AX2">
+        <v>6</v>
+      </c>
+      <c r="AY2">
+        <v>100</v>
+      </c>
+      <c r="BA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4363B6-27F8-4AF4-90B7-F5229423754F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>